--- a/excel/testa.xlsx
+++ b/excel/testa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
   <si>
     <t>请求协议</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1112,6 +1112,10 @@
   </si>
   <si>
     <t>{"a":17, "b":"c"}</t>
+  </si>
+  <si>
+    <t>不告诉你啊啊</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2254,7 +2258,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2272,7 +2276,9 @@
       <c r="C1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
